--- a/Lax_Friedrichs_method/results/error_norms_auto.xlsx
+++ b/Lax_Friedrichs_method/results/error_norms_auto.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,16 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.747296360135611e-06</v>
+        <v>0.3164403483074749</v>
       </c>
       <c r="D2" t="n">
-        <v>1.752000875173702e-10</v>
+        <v>0.3233005541585267</v>
       </c>
       <c r="E2" t="n">
-        <v>1.307061186533947e-15</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.571063295259639e-17</v>
+        <v>0.3239753483761879</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +495,6 @@
         <f>D2/E2</f>
         <v/>
       </c>
-      <c r="F3">
-        <f>E2/F2</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,16 +508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.258151925178997e-06</v>
+        <v>0.272518181771069</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25142901026296e-10</v>
+        <v>0.2810428891827828</v>
       </c>
       <c r="E4" t="n">
-        <v>8.063185324666748e-16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4.934688446907374e-17</v>
+        <v>0.2818495955627683</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +531,6 @@
         <f>D4/E4</f>
         <v/>
       </c>
-      <c r="F5">
-        <f>E4/F4</f>
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -563,16 +544,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.476732011202875e-06</v>
+        <v>0.8346892101176664</v>
       </c>
       <c r="D6" t="n">
-        <v>1.480711237829946e-10</v>
+        <v>0.8293338358937191</v>
       </c>
       <c r="E6" t="n">
-        <v>1.170253012706065e-15</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.429332114114265e-17</v>
+        <v>0.8287942655498161</v>
       </c>
     </row>
     <row r="7">
@@ -589,10 +567,6 @@
         <f>D6/E6</f>
         <v/>
       </c>
-      <c r="F7">
-        <f>E6/F6</f>
-        <v/>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -606,16 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.235525104994462e-05</v>
+        <v>2.237571161292486</v>
       </c>
       <c r="D8" t="n">
-        <v>3.917593053527521e-09</v>
+        <v>7.229220162618181</v>
       </c>
       <c r="E8" t="n">
-        <v>9.242318284238886e-14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.245727623515453e-14</v>
+        <v>22.90851657740766</v>
       </c>
     </row>
     <row r="9">
@@ -632,10 +603,6 @@
         <f>D8/E8</f>
         <v/>
       </c>
-      <c r="F9">
-        <f>E8/F8</f>
-        <v/>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -649,16 +616,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.896477580569781e-06</v>
+        <v>1.926994543269511</v>
       </c>
       <c r="D10" t="n">
-        <v>2.798280335963261e-09</v>
+        <v>6.284310048056426</v>
       </c>
       <c r="E10" t="n">
-        <v>5.701533021035712e-14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.103429881506775e-14</v>
+        <v>19.92977602971193</v>
       </c>
     </row>
     <row r="11">
@@ -675,10 +639,6 @@
         <f>D10/E10</f>
         <v/>
       </c>
-      <c r="F11">
-        <f>E10/F10</f>
-        <v/>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -692,16 +652,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.044207219116802e-05</v>
+        <v>5.902144006574449</v>
       </c>
       <c r="D12" t="n">
-        <v>3.310970982835619e-09</v>
+        <v>18.54446833099011</v>
       </c>
       <c r="E12" t="n">
-        <v>8.274938409884457e-14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.437642365708194e-14</v>
+        <v>58.60460453787991</v>
       </c>
     </row>
     <row r="13">
@@ -718,10 +675,6 @@
         <f>D12/E12</f>
         <v/>
       </c>
-      <c r="F13">
-        <f>E12/F12</f>
-        <v/>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -735,16 +688,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.527572570700578e-07</v>
+        <v>0.09678932251842197</v>
       </c>
       <c r="D14" t="n">
-        <v>1.547652983546754e-11</v>
+        <v>0.09991836081082778</v>
       </c>
       <c r="E14" t="n">
-        <v>8.356648706353554e-17</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.045830089196898e-18</v>
+        <v>0.1002316967432362</v>
       </c>
     </row>
     <row r="15">
@@ -761,10 +711,6 @@
         <f>D14/E14</f>
         <v/>
       </c>
-      <c r="F15">
-        <f>E14/F14</f>
-        <v/>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -778,16 +724,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.240343132671076e-07</v>
+        <v>0.08113919979398444</v>
       </c>
       <c r="D16" t="n">
-        <v>1.105467428708096e-11</v>
+        <v>0.08442616689516634</v>
       </c>
       <c r="E16" t="n">
-        <v>5.098144129078719e-17</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8.770761894538738e-19</v>
+        <v>0.08474604094514103</v>
       </c>
     </row>
     <row r="17">
@@ -804,10 +747,6 @@
         <f>D16/E16</f>
         <v/>
       </c>
-      <c r="F17">
-        <f>E16/F16</f>
-        <v/>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -821,16 +760,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.826492155756256e-07</v>
+        <v>0.3883858817270134</v>
       </c>
       <c r="D18" t="n">
-        <v>1.308006236655501e-11</v>
+        <v>0.3842082113089135</v>
       </c>
       <c r="E18" t="n">
-        <v>7.427392034742298e-17</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.159072837708664e-18</v>
+        <v>0.3837912283306051</v>
       </c>
     </row>
     <row r="19">
@@ -847,10 +783,6 @@
         <f>D18/E18</f>
         <v/>
       </c>
-      <c r="F19">
-        <f>E18/F18</f>
-        <v/>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -864,16 +796,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.1223305060375e-06</v>
+        <v>0.6968698230344685</v>
       </c>
       <c r="D20" t="n">
-        <v>1.778723168754937e-09</v>
+        <v>0.6968698230344741</v>
       </c>
       <c r="E20" t="n">
-        <v>1.554312234475219e-14</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4.440892098500626e-15</v>
+        <v>0.6968698230344821</v>
       </c>
     </row>
     <row r="21">
@@ -890,10 +819,6 @@
         <f>D20/E20</f>
         <v/>
       </c>
-      <c r="F21">
-        <f>E20/F20</f>
-        <v/>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -907,16 +832,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5.26235576403522e-06</v>
+        <v>0.6831492406486595</v>
       </c>
       <c r="D22" t="n">
-        <v>1.270518135143561e-09</v>
+        <v>0.706320681331343</v>
       </c>
       <c r="E22" t="n">
-        <v>1.06581410364015e-14</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.775557561562891e-15</v>
+        <v>0.70874530287126</v>
       </c>
     </row>
     <row r="23">
@@ -933,10 +855,6 @@
         <f>D22/E22</f>
         <v/>
       </c>
-      <c r="F23">
-        <f>E22/F22</f>
-        <v/>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -950,16 +868,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6.019451071592741e-06</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>1.503295932181459e-09</v>
+        <v>1.000000000000008</v>
       </c>
       <c r="E24" t="n">
-        <v>1.465494392505207e-14</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.000000000000026</v>
       </c>
     </row>
     <row r="25">
@@ -974,10 +889,6 @@
       </c>
       <c r="E25">
         <f>D24/E24</f>
-        <v/>
-      </c>
-      <c r="F25">
-        <f>E24/F24</f>
         <v/>
       </c>
     </row>
@@ -992,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,11 +929,6 @@
           <t>10000</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1036,16 +942,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.07938196915376027</v>
+        <v>0.5816297491623608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03519020986173923</v>
+        <v>0.5860092954036585</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01685723000731696</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01302552349622786</v>
+        <v>0.5863339232404196</v>
       </c>
     </row>
     <row r="3">
@@ -1062,10 +965,6 @@
         <f>D2/E2</f>
         <v/>
       </c>
-      <c r="F3">
-        <f>E2/F2</f>
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1079,16 +978,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.04834791264149805</v>
+        <v>0.8973666580279368</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02109792176372437</v>
+        <v>0.9004080863272017</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009567382325822034</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.005631207680827973</v>
+        <v>0.9006386914851281</v>
       </c>
     </row>
     <row r="5">
@@ -1105,10 +1001,6 @@
         <f>D4/E4</f>
         <v/>
       </c>
-      <c r="F5">
-        <f>E4/F4</f>
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1122,16 +1014,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2030092080560205</v>
+        <v>0.700176950957232</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06743465633732877</v>
+        <v>0.7033808793887799</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0248483008972888</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01537286011581741</v>
+        <v>0.7034164424818655</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1037,6 @@
         <f>D6/E6</f>
         <v/>
       </c>
-      <c r="F7">
-        <f>E6/F6</f>
-        <v/>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1165,16 +1050,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7938196915376027</v>
+        <v>5.816297491623607</v>
       </c>
       <c r="D8" t="n">
-        <v>1.11281214502415</v>
+        <v>18.53124103506002</v>
       </c>
       <c r="E8" t="n">
-        <v>1.685723000731696</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.11903219641197</v>
+        <v>58.63339232404195</v>
       </c>
     </row>
     <row r="9">
@@ -1191,10 +1073,6 @@
         <f>D8/E8</f>
         <v/>
       </c>
-      <c r="F9">
-        <f>E8/F8</f>
-        <v/>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1208,16 +1086,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4834791264149805</v>
+        <v>8.973666580279367</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6671748666940582</v>
+        <v>28.47340376427471</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9567382325822033</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.780744224885089</v>
+        <v>90.06386914851281</v>
       </c>
     </row>
     <row r="11">
@@ -1234,10 +1109,6 @@
         <f>D10/E10</f>
         <v/>
       </c>
-      <c r="F11">
-        <f>E10/F10</f>
-        <v/>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1251,16 +1122,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.030092080560205</v>
+        <v>7.00176950957232</v>
       </c>
       <c r="D12" t="n">
-        <v>2.132471072566668</v>
+        <v>22.24285641480728</v>
       </c>
       <c r="E12" t="n">
-        <v>2.48483008972888</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.861325211714287</v>
+        <v>70.34164424818655</v>
       </c>
     </row>
     <row r="13">
@@ -1277,10 +1145,6 @@
         <f>D12/E12</f>
         <v/>
       </c>
-      <c r="F13">
-        <f>E12/F12</f>
-        <v/>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1294,16 +1158,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01526487569890801</v>
+        <v>0.4736624588108304</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002506171359294274</v>
+        <v>0.4786196686959243</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004929268073416592</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0002927686769533329</v>
+        <v>0.479034569716764</v>
       </c>
     </row>
     <row r="15">
@@ -1320,10 +1181,6 @@
         <f>D14/E14</f>
         <v/>
       </c>
-      <c r="F15">
-        <f>E14/F14</f>
-        <v/>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1337,16 +1194,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01567696310861389</v>
+        <v>0.6825826502368658</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002731974561498385</v>
+        <v>0.6873588477355467</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0005362320411541213</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0001781080027762387</v>
+        <v>0.6877835707369511</v>
       </c>
     </row>
     <row r="17">
@@ -1363,10 +1217,6 @@
         <f>D16/E16</f>
         <v/>
       </c>
-      <c r="F17">
-        <f>E16/F16</f>
-        <v/>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1380,16 +1230,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02554136302045073</v>
+        <v>0.5545029375909902</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003603074096857226</v>
+        <v>0.5586723407762884</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0006146137380685806</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0003319333138344475</v>
+        <v>0.5587190841093198</v>
       </c>
     </row>
     <row r="19">
@@ -1406,10 +1253,6 @@
         <f>D18/E18</f>
         <v/>
       </c>
-      <c r="F19">
-        <f>E18/F18</f>
-        <v/>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1423,16 +1266,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.71426158550574</v>
+        <v>0.9000000000000011</v>
       </c>
       <c r="D20" t="n">
-        <v>0.71426158550574</v>
+        <v>0.900000000000008</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8158719047753586</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.7985094010443263</v>
+        <v>0.9000000000000198</v>
       </c>
     </row>
     <row r="21">
@@ -1449,10 +1289,6 @@
         <f>D20/E20</f>
         <v/>
       </c>
-      <c r="F21">
-        <f>E20/F20</f>
-        <v/>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1466,16 +1302,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3156512879344383</v>
+        <v>1.699466079288994</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3156512879344383</v>
+        <v>1.73363170599307</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3758741464671563</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.3690863426347253</v>
+        <v>1.734426288713234</v>
       </c>
     </row>
     <row r="23">
@@ -1492,10 +1325,6 @@
         <f>D22/E22</f>
         <v/>
       </c>
-      <c r="F23">
-        <f>E22/F22</f>
-        <v/>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1509,16 +1338,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.023158858530647</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>2.023158858530647</v>
+        <v>1.000000000000009</v>
       </c>
       <c r="E24" t="n">
-        <v>2.023158858530647</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2.023158858530647</v>
+        <v>1.000000000000042</v>
       </c>
     </row>
     <row r="25">
@@ -1533,10 +1359,6 @@
       </c>
       <c r="E25">
         <f>D24/E24</f>
-        <v/>
-      </c>
-      <c r="F25">
-        <f>E24/F24</f>
         <v/>
       </c>
     </row>
